--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Col3a1-Ddr2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Col3a1-Ddr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.82742016367136</v>
+        <v>7.876086666666667</v>
       </c>
       <c r="H2">
-        <v>2.82742016367136</v>
+        <v>23.62826</v>
       </c>
       <c r="I2">
-        <v>0.001936277410101369</v>
+        <v>0.005141951162768809</v>
       </c>
       <c r="J2">
-        <v>0.001936277410101369</v>
+        <v>0.00514195116276881</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.21725754889436</v>
+        <v>1.384600333333333</v>
       </c>
       <c r="N2">
-        <v>1.21725754889436</v>
+        <v>4.153801000000001</v>
       </c>
       <c r="O2">
-        <v>0.01353302886647673</v>
+        <v>0.01502900005108802</v>
       </c>
       <c r="P2">
-        <v>0.01353302886647673</v>
+        <v>0.01502900005108803</v>
       </c>
       <c r="Q2">
-        <v>3.44169853812509</v>
+        <v>10.90523222402889</v>
       </c>
       <c r="R2">
-        <v>3.44169853812509</v>
+        <v>98.14709001626002</v>
       </c>
       <c r="S2">
-        <v>2.620369808440863E-05</v>
+        <v>7.727838428794455E-05</v>
       </c>
       <c r="T2">
-        <v>2.620369808440863E-05</v>
+        <v>7.727838428794458E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.82742016367136</v>
+        <v>7.876086666666667</v>
       </c>
       <c r="H3">
-        <v>2.82742016367136</v>
+        <v>23.62826</v>
       </c>
       <c r="I3">
-        <v>0.001936277410101369</v>
+        <v>0.005141951162768809</v>
       </c>
       <c r="J3">
-        <v>0.001936277410101369</v>
+        <v>0.00514195116276881</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>66.08540726202909</v>
+        <v>66.21459833333334</v>
       </c>
       <c r="N3">
-        <v>66.08540726202909</v>
+        <v>198.643795</v>
       </c>
       <c r="O3">
-        <v>0.7347136396420295</v>
+        <v>0.7187194584438009</v>
       </c>
       <c r="P3">
-        <v>0.7347136396420295</v>
+        <v>0.718719458443801</v>
       </c>
       <c r="Q3">
-        <v>186.8512130170948</v>
+        <v>521.5119150718556</v>
       </c>
       <c r="R3">
-        <v>186.8512130170948</v>
+        <v>4693.6072356467</v>
       </c>
       <c r="S3">
-        <v>0.001422609423332219</v>
+        <v>0.003695620355049671</v>
       </c>
       <c r="T3">
-        <v>0.001422609423332219</v>
+        <v>0.003695620355049672</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.82742016367136</v>
+        <v>7.876086666666667</v>
       </c>
       <c r="H4">
-        <v>2.82742016367136</v>
+        <v>23.62826</v>
       </c>
       <c r="I4">
-        <v>0.001936277410101369</v>
+        <v>0.005141951162768809</v>
       </c>
       <c r="J4">
-        <v>0.001936277410101369</v>
+        <v>0.00514195116276881</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.444081249923022</v>
+        <v>0.2096873333333333</v>
       </c>
       <c r="N4">
-        <v>0.444081249923022</v>
+        <v>0.629062</v>
       </c>
       <c r="O4">
-        <v>0.004937134610278671</v>
+        <v>0.002276029311499885</v>
       </c>
       <c r="P4">
-        <v>0.004937134610278671</v>
+        <v>0.002276029311499885</v>
       </c>
       <c r="Q4">
-        <v>1.255604280340733</v>
+        <v>1.651515610235555</v>
       </c>
       <c r="R4">
-        <v>1.255604280340733</v>
+        <v>14.86364049212</v>
       </c>
       <c r="S4">
-        <v>9.559662216512216E-06</v>
+        <v>1.170323156476272E-05</v>
       </c>
       <c r="T4">
-        <v>9.559662216512216E-06</v>
+        <v>1.170323156476273E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.82742016367136</v>
+        <v>7.876086666666667</v>
       </c>
       <c r="H5">
-        <v>2.82742016367136</v>
+        <v>23.62826</v>
       </c>
       <c r="I5">
-        <v>0.001936277410101369</v>
+        <v>0.005141951162768809</v>
       </c>
       <c r="J5">
-        <v>0.001936277410101369</v>
+        <v>0.00514195116276881</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.2004166108953</v>
+        <v>0.4491346666666667</v>
       </c>
       <c r="N5">
-        <v>22.2004166108953</v>
+        <v>1.347404</v>
       </c>
       <c r="O5">
-        <v>0.2468161968812151</v>
+        <v>0.004875085442185652</v>
       </c>
       <c r="P5">
-        <v>0.2468161968812151</v>
+        <v>0.004875085442185653</v>
       </c>
       <c r="Q5">
-        <v>62.76990556754997</v>
+        <v>3.537423559671111</v>
       </c>
       <c r="R5">
-        <v>62.76990556754997</v>
+        <v>31.83681203704</v>
       </c>
       <c r="S5">
-        <v>0.0004779046264682288</v>
+        <v>2.506745125804381E-05</v>
       </c>
       <c r="T5">
-        <v>0.0004779046264682288</v>
+        <v>2.506745125804382E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1319.34805423078</v>
+        <v>7.876086666666667</v>
       </c>
       <c r="H6">
-        <v>1319.34805423078</v>
+        <v>23.62826</v>
       </c>
       <c r="I6">
-        <v>0.9035175833757644</v>
+        <v>0.005141951162768809</v>
       </c>
       <c r="J6">
-        <v>0.9035175833757644</v>
+        <v>0.00514195116276881</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.21725754889436</v>
+        <v>0.04322599999999999</v>
       </c>
       <c r="N6">
-        <v>1.21725754889436</v>
+        <v>0.129678</v>
       </c>
       <c r="O6">
-        <v>0.01353302886647673</v>
+        <v>0.000469192113109172</v>
       </c>
       <c r="P6">
-        <v>0.01353302886647673</v>
+        <v>0.0004691921131091722</v>
       </c>
       <c r="Q6">
-        <v>1605.986378631502</v>
+        <v>0.3404517222533333</v>
       </c>
       <c r="R6">
-        <v>1605.986378631502</v>
+        <v>3.06406550028</v>
       </c>
       <c r="S6">
-        <v>0.01222732953719352</v>
+        <v>2.412562931563662E-06</v>
       </c>
       <c r="T6">
-        <v>0.01222732953719352</v>
+        <v>2.412562931563663E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1319.34805423078</v>
+        <v>7.876086666666667</v>
       </c>
       <c r="H7">
-        <v>1319.34805423078</v>
+        <v>23.62826</v>
       </c>
       <c r="I7">
-        <v>0.9035175833757644</v>
+        <v>0.005141951162768809</v>
       </c>
       <c r="J7">
-        <v>0.9035175833757644</v>
+        <v>0.00514195116276881</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>66.08540726202909</v>
+        <v>23.82732666666666</v>
       </c>
       <c r="N7">
-        <v>66.08540726202909</v>
+        <v>71.48197999999999</v>
       </c>
       <c r="O7">
-        <v>0.7347136396420295</v>
+        <v>0.2586312346383163</v>
       </c>
       <c r="P7">
-        <v>0.7347136396420295</v>
+        <v>0.2586312346383163</v>
       </c>
       <c r="Q7">
-        <v>87189.65348420675</v>
+        <v>187.6660898616444</v>
       </c>
       <c r="R7">
-        <v>87189.65348420675</v>
+        <v>1688.9948087548</v>
       </c>
       <c r="S7">
-        <v>0.6638266921625787</v>
+        <v>0.001329869177676823</v>
       </c>
       <c r="T7">
-        <v>0.6638266921625787</v>
+        <v>0.001329869177676824</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1319.34805423078</v>
+        <v>1350.889973666667</v>
       </c>
       <c r="H8">
-        <v>1319.34805423078</v>
+        <v>4052.669921</v>
       </c>
       <c r="I8">
-        <v>0.9035175833757644</v>
+        <v>0.8819367491556352</v>
       </c>
       <c r="J8">
-        <v>0.9035175833757644</v>
+        <v>0.8819367491556354</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.444081249923022</v>
+        <v>1.384600333333333</v>
       </c>
       <c r="N8">
-        <v>0.444081249923022</v>
+        <v>4.153801000000001</v>
       </c>
       <c r="O8">
-        <v>0.004937134610278671</v>
+        <v>0.01502900005108802</v>
       </c>
       <c r="P8">
-        <v>0.004937134610278671</v>
+        <v>0.01502900005108803</v>
       </c>
       <c r="Q8">
-        <v>585.8977330063118</v>
+        <v>1870.442707835525</v>
       </c>
       <c r="R8">
-        <v>585.8977330063118</v>
+        <v>16833.98437051972</v>
       </c>
       <c r="S8">
-        <v>0.004460787931879831</v>
+        <v>0.01325462744811645</v>
       </c>
       <c r="T8">
-        <v>0.004460787931879831</v>
+        <v>0.01325462744811645</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,805 +962,1797 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1319.34805423078</v>
+        <v>1350.889973666667</v>
       </c>
       <c r="H9">
-        <v>1319.34805423078</v>
+        <v>4052.669921</v>
       </c>
       <c r="I9">
-        <v>0.9035175833757644</v>
+        <v>0.8819367491556352</v>
       </c>
       <c r="J9">
-        <v>0.9035175833757644</v>
+        <v>0.8819367491556354</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.2004166108953</v>
+        <v>66.21459833333334</v>
       </c>
       <c r="N9">
-        <v>22.2004166108953</v>
+        <v>198.643795</v>
       </c>
       <c r="O9">
-        <v>0.2468161968812151</v>
+        <v>0.7187194584438009</v>
       </c>
       <c r="P9">
-        <v>0.2468161968812151</v>
+        <v>0.718719458443801</v>
       </c>
       <c r="Q9">
-        <v>29290.0764586974</v>
+        <v>89448.63699886559</v>
       </c>
       <c r="R9">
-        <v>29290.0764586974</v>
+        <v>805037.7329897903</v>
       </c>
       <c r="S9">
-        <v>0.2230027737441123</v>
+        <v>0.6338651027348244</v>
       </c>
       <c r="T9">
-        <v>0.2230027737441123</v>
+        <v>0.6338651027348247</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.346879340978129</v>
+        <v>1350.889973666667</v>
       </c>
       <c r="H10">
-        <v>0.346879340978129</v>
+        <v>4052.669921</v>
       </c>
       <c r="I10">
-        <v>0.0002375503438069383</v>
+        <v>0.8819367491556352</v>
       </c>
       <c r="J10">
-        <v>0.0002375503438069383</v>
+        <v>0.8819367491556354</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.21725754889436</v>
+        <v>0.2096873333333333</v>
       </c>
       <c r="N10">
-        <v>1.21725754889436</v>
+        <v>0.629062</v>
       </c>
       <c r="O10">
-        <v>0.01353302886647673</v>
+        <v>0.002276029311499885</v>
       </c>
       <c r="P10">
-        <v>0.01353302886647673</v>
+        <v>0.002276029311499885</v>
       </c>
       <c r="Q10">
-        <v>0.4222414963611282</v>
+        <v>283.2645162049002</v>
       </c>
       <c r="R10">
-        <v>0.4222414963611282</v>
+        <v>2549.380645844102</v>
       </c>
       <c r="S10">
-        <v>3.214775659980768E-06</v>
+        <v>0.002007313891967147</v>
       </c>
       <c r="T10">
-        <v>3.214775659980768E-06</v>
+        <v>0.002007313891967147</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.346879340978129</v>
+        <v>1350.889973666667</v>
       </c>
       <c r="H11">
-        <v>0.346879340978129</v>
+        <v>4052.669921</v>
       </c>
       <c r="I11">
-        <v>0.0002375503438069383</v>
+        <v>0.8819367491556352</v>
       </c>
       <c r="J11">
-        <v>0.0002375503438069383</v>
+        <v>0.8819367491556354</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>66.08540726202909</v>
+        <v>0.4491346666666667</v>
       </c>
       <c r="N11">
-        <v>66.08540726202909</v>
+        <v>1.347404</v>
       </c>
       <c r="O11">
-        <v>0.7347136396420295</v>
+        <v>0.004875085442185652</v>
       </c>
       <c r="P11">
-        <v>0.7347136396420295</v>
+        <v>0.004875085442185653</v>
       </c>
       <c r="Q11">
-        <v>22.92366251932391</v>
+        <v>606.7315180261205</v>
       </c>
       <c r="R11">
-        <v>22.92366251932391</v>
+        <v>5460.583662235084</v>
       </c>
       <c r="S11">
-        <v>0.0001745314776966111</v>
+        <v>0.004299517006737177</v>
       </c>
       <c r="T11">
-        <v>0.0001745314776966111</v>
+        <v>0.004299517006737178</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.346879340978129</v>
+        <v>1350.889973666667</v>
       </c>
       <c r="H12">
-        <v>0.346879340978129</v>
+        <v>4052.669921</v>
       </c>
       <c r="I12">
-        <v>0.0002375503438069383</v>
+        <v>0.8819367491556352</v>
       </c>
       <c r="J12">
-        <v>0.0002375503438069383</v>
+        <v>0.8819367491556354</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.444081249923022</v>
+        <v>0.04322599999999999</v>
       </c>
       <c r="N12">
-        <v>0.444081249923022</v>
+        <v>0.129678</v>
       </c>
       <c r="O12">
-        <v>0.004937134610278671</v>
+        <v>0.000469192113109172</v>
       </c>
       <c r="P12">
-        <v>0.004937134610278671</v>
+        <v>0.0004691921131091722</v>
       </c>
       <c r="Q12">
-        <v>0.1540426113140417</v>
+        <v>58.39357000171533</v>
       </c>
       <c r="R12">
-        <v>0.1540426113140417</v>
+        <v>525.5421300154379</v>
       </c>
       <c r="S12">
-        <v>1.172818024092832E-06</v>
+        <v>0.0004137977669649663</v>
       </c>
       <c r="T12">
-        <v>1.172818024092832E-06</v>
+        <v>0.0004137977669649665</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.346879340978129</v>
+        <v>1350.889973666667</v>
       </c>
       <c r="H13">
-        <v>0.346879340978129</v>
+        <v>4052.669921</v>
       </c>
       <c r="I13">
-        <v>0.0002375503438069383</v>
+        <v>0.8819367491556352</v>
       </c>
       <c r="J13">
-        <v>0.0002375503438069383</v>
+        <v>0.8819367491556354</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.2004166108953</v>
+        <v>23.82732666666666</v>
       </c>
       <c r="N13">
-        <v>22.2004166108953</v>
+        <v>71.48197999999999</v>
       </c>
       <c r="O13">
-        <v>0.2468161968812151</v>
+        <v>0.2586312346383163</v>
       </c>
       <c r="P13">
-        <v>0.2468161968812151</v>
+        <v>0.2586312346383163</v>
       </c>
       <c r="Q13">
-        <v>7.700865883427269</v>
+        <v>32188.0966932804</v>
       </c>
       <c r="R13">
-        <v>7.700865883427269</v>
+        <v>289692.8702395236</v>
       </c>
       <c r="S13">
-        <v>5.863127242625362E-05</v>
+        <v>0.228096390307025</v>
       </c>
       <c r="T13">
-        <v>5.863127242625362E-05</v>
+        <v>0.2280963903070251</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.80731073482064</v>
+        <v>0.775464</v>
       </c>
       <c r="H14">
-        <v>1.80731073482064</v>
+        <v>2.326392</v>
       </c>
       <c r="I14">
-        <v>0.001237684796136887</v>
+        <v>0.0005062663966562098</v>
       </c>
       <c r="J14">
-        <v>0.001237684796136887</v>
+        <v>0.0005062663966562099</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.21725754889436</v>
+        <v>1.384600333333333</v>
       </c>
       <c r="N14">
-        <v>1.21725754889436</v>
+        <v>4.153801000000001</v>
       </c>
       <c r="O14">
-        <v>0.01353302886647673</v>
+        <v>0.01502900005108802</v>
       </c>
       <c r="P14">
-        <v>0.01353302886647673</v>
+        <v>0.01502900005108803</v>
       </c>
       <c r="Q14">
-        <v>2.199962635158237</v>
+        <v>1.073707712888</v>
       </c>
       <c r="R14">
-        <v>2.199962635158237</v>
+        <v>9.663369415992003</v>
       </c>
       <c r="S14">
-        <v>1.674962407371986E-05</v>
+        <v>7.608677701210326E-06</v>
       </c>
       <c r="T14">
-        <v>1.674962407371986E-05</v>
+        <v>7.608677701210329E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.80731073482064</v>
+        <v>0.775464</v>
       </c>
       <c r="H15">
-        <v>1.80731073482064</v>
+        <v>2.326392</v>
       </c>
       <c r="I15">
-        <v>0.001237684796136887</v>
+        <v>0.0005062663966562098</v>
       </c>
       <c r="J15">
-        <v>0.001237684796136887</v>
+        <v>0.0005062663966562099</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>66.08540726202909</v>
+        <v>66.21459833333334</v>
       </c>
       <c r="N15">
-        <v>66.08540726202909</v>
+        <v>198.643795</v>
       </c>
       <c r="O15">
-        <v>0.7347136396420295</v>
+        <v>0.7187194584438009</v>
       </c>
       <c r="P15">
-        <v>0.7347136396420295</v>
+        <v>0.718719458443801</v>
       </c>
       <c r="Q15">
-        <v>119.4368659596591</v>
+        <v>51.34703728196001</v>
       </c>
       <c r="R15">
-        <v>119.4368659596591</v>
+        <v>462.1233355376401</v>
       </c>
       <c r="S15">
-        <v>0.0009093439012993356</v>
+        <v>0.0003638635104330456</v>
       </c>
       <c r="T15">
-        <v>0.0009093439012993356</v>
+        <v>0.0003638635104330458</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.80731073482064</v>
+        <v>0.775464</v>
       </c>
       <c r="H16">
-        <v>1.80731073482064</v>
+        <v>2.326392</v>
       </c>
       <c r="I16">
-        <v>0.001237684796136887</v>
+        <v>0.0005062663966562098</v>
       </c>
       <c r="J16">
-        <v>0.001237684796136887</v>
+        <v>0.0005062663966562099</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.444081249923022</v>
+        <v>0.2096873333333333</v>
       </c>
       <c r="N16">
-        <v>0.444081249923022</v>
+        <v>0.629062</v>
       </c>
       <c r="O16">
-        <v>0.004937134610278671</v>
+        <v>0.002276029311499885</v>
       </c>
       <c r="P16">
-        <v>0.004937134610278671</v>
+        <v>0.002276029311499885</v>
       </c>
       <c r="Q16">
-        <v>0.8025928101184452</v>
+        <v>0.162604978256</v>
       </c>
       <c r="R16">
-        <v>0.8025928101184452</v>
+        <v>1.463444804304</v>
       </c>
       <c r="S16">
-        <v>6.110616443623126E-06</v>
+        <v>1.152277158216961E-06</v>
       </c>
       <c r="T16">
-        <v>6.110616443623126E-06</v>
+        <v>1.152277158216961E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.80731073482064</v>
+        <v>0.775464</v>
       </c>
       <c r="H17">
-        <v>1.80731073482064</v>
+        <v>2.326392</v>
       </c>
       <c r="I17">
-        <v>0.001237684796136887</v>
+        <v>0.0005062663966562098</v>
       </c>
       <c r="J17">
-        <v>0.001237684796136887</v>
+        <v>0.0005062663966562099</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.2004166108953</v>
+        <v>0.4491346666666667</v>
       </c>
       <c r="N17">
-        <v>22.2004166108953</v>
+        <v>1.347404</v>
       </c>
       <c r="O17">
-        <v>0.2468161968812151</v>
+        <v>0.004875085442185652</v>
       </c>
       <c r="P17">
-        <v>0.2468161968812151</v>
+        <v>0.004875085442185653</v>
       </c>
       <c r="Q17">
-        <v>40.12305125836153</v>
+        <v>0.3482877651520001</v>
       </c>
       <c r="R17">
-        <v>40.12305125836153</v>
+        <v>3.134589886368</v>
       </c>
       <c r="S17">
-        <v>0.0003054806543202085</v>
+        <v>2.468091940206475E-06</v>
       </c>
       <c r="T17">
-        <v>0.0003054806543202085</v>
+        <v>2.468091940206477E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>135.905397365924</v>
+        <v>0.775464</v>
       </c>
       <c r="H18">
-        <v>135.905397365924</v>
+        <v>2.326392</v>
       </c>
       <c r="I18">
-        <v>0.09307090407419034</v>
+        <v>0.0005062663966562098</v>
       </c>
       <c r="J18">
-        <v>0.09307090407419034</v>
+        <v>0.0005062663966562099</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>1.21725754889436</v>
+        <v>0.04322599999999999</v>
       </c>
       <c r="N18">
-        <v>1.21725754889436</v>
+        <v>0.129678</v>
       </c>
       <c r="O18">
-        <v>0.01353302886647673</v>
+        <v>0.000469192113109172</v>
       </c>
       <c r="P18">
-        <v>0.01353302886647673</v>
+        <v>0.0004691921131091722</v>
       </c>
       <c r="Q18">
-        <v>165.4318708791587</v>
+        <v>0.033520206864</v>
       </c>
       <c r="R18">
-        <v>165.4318708791587</v>
+        <v>0.301681861776</v>
       </c>
       <c r="S18">
-        <v>0.001259531231465105</v>
+        <v>2.375362004432934E-07</v>
       </c>
       <c r="T18">
-        <v>0.001259531231465105</v>
+        <v>2.375362004432935E-07</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>135.905397365924</v>
+        <v>0.775464</v>
       </c>
       <c r="H19">
-        <v>135.905397365924</v>
+        <v>2.326392</v>
       </c>
       <c r="I19">
-        <v>0.09307090407419034</v>
+        <v>0.0005062663966562098</v>
       </c>
       <c r="J19">
-        <v>0.09307090407419034</v>
+        <v>0.0005062663966562099</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>66.08540726202909</v>
+        <v>23.82732666666666</v>
       </c>
       <c r="N19">
-        <v>66.08540726202909</v>
+        <v>71.48197999999999</v>
       </c>
       <c r="O19">
-        <v>0.7347136396420295</v>
+        <v>0.2586312346383163</v>
       </c>
       <c r="P19">
-        <v>0.7347136396420295</v>
+        <v>0.2586312346383163</v>
       </c>
       <c r="Q19">
-        <v>8981.363534034983</v>
+        <v>18.47723404624</v>
       </c>
       <c r="R19">
-        <v>8981.363534034983</v>
+        <v>166.29510641616</v>
       </c>
       <c r="S19">
-        <v>0.06838046267712258</v>
+        <v>0.0001309363032230871</v>
       </c>
       <c r="T19">
-        <v>0.06838046267712258</v>
+        <v>0.0001309363032230872</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>135.905397365924</v>
+        <v>2.121057</v>
       </c>
       <c r="H20">
-        <v>135.905397365924</v>
+        <v>6.363171</v>
       </c>
       <c r="I20">
-        <v>0.09307090407419034</v>
+        <v>0.001384744984283513</v>
       </c>
       <c r="J20">
-        <v>0.09307090407419034</v>
+        <v>0.001384744984283514</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.444081249923022</v>
+        <v>1.384600333333333</v>
       </c>
       <c r="N20">
-        <v>0.444081249923022</v>
+        <v>4.153801000000001</v>
       </c>
       <c r="O20">
-        <v>0.004937134610278671</v>
+        <v>0.01502900005108802</v>
       </c>
       <c r="P20">
-        <v>0.004937134610278671</v>
+        <v>0.01502900005108803</v>
       </c>
       <c r="Q20">
-        <v>60.35303873354451</v>
+        <v>2.936816229219</v>
       </c>
       <c r="R20">
-        <v>60.35303873354451</v>
+        <v>26.43134606297101</v>
       </c>
       <c r="S20">
-        <v>0.0004595035817146113</v>
+        <v>2.08113324395408E-05</v>
       </c>
       <c r="T20">
-        <v>0.0004595035817146113</v>
+        <v>2.081133243954082E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.121057</v>
+      </c>
+      <c r="H21">
+        <v>6.363171</v>
+      </c>
+      <c r="I21">
+        <v>0.001384744984283513</v>
+      </c>
+      <c r="J21">
+        <v>0.001384744984283514</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>66.21459833333334</v>
+      </c>
+      <c r="N21">
+        <v>198.643795</v>
+      </c>
+      <c r="O21">
+        <v>0.7187194584438009</v>
+      </c>
+      <c r="P21">
+        <v>0.718719458443801</v>
+      </c>
+      <c r="Q21">
+        <v>140.444937297105</v>
+      </c>
+      <c r="R21">
+        <v>1264.004435673945</v>
+      </c>
+      <c r="S21">
+        <v>0.0009952431651870164</v>
+      </c>
+      <c r="T21">
+        <v>0.0009952431651870167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.121057</v>
+      </c>
+      <c r="H22">
+        <v>6.363171</v>
+      </c>
+      <c r="I22">
+        <v>0.001384744984283513</v>
+      </c>
+      <c r="J22">
+        <v>0.001384744984283514</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.2096873333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.629062</v>
+      </c>
+      <c r="O22">
+        <v>0.002276029311499885</v>
+      </c>
+      <c r="P22">
+        <v>0.002276029311499885</v>
+      </c>
+      <c r="Q22">
+        <v>0.444758786178</v>
+      </c>
+      <c r="R22">
+        <v>4.002829075602</v>
+      </c>
+      <c r="S22">
+        <v>3.151720173181724E-06</v>
+      </c>
+      <c r="T22">
+        <v>3.151720173181725E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.121057</v>
+      </c>
+      <c r="H23">
+        <v>6.363171</v>
+      </c>
+      <c r="I23">
+        <v>0.001384744984283513</v>
+      </c>
+      <c r="J23">
+        <v>0.001384744984283514</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.4491346666666667</v>
+      </c>
+      <c r="N23">
+        <v>1.347404</v>
+      </c>
+      <c r="O23">
+        <v>0.004875085442185652</v>
+      </c>
+      <c r="P23">
+        <v>0.004875085442185653</v>
+      </c>
+      <c r="Q23">
+        <v>0.9526402286760001</v>
+      </c>
+      <c r="R23">
+        <v>8.573762058084</v>
+      </c>
+      <c r="S23">
+        <v>6.750750114020156E-06</v>
+      </c>
+      <c r="T23">
+        <v>6.750750114020158E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.121057</v>
+      </c>
+      <c r="H24">
+        <v>6.363171</v>
+      </c>
+      <c r="I24">
+        <v>0.001384744984283513</v>
+      </c>
+      <c r="J24">
+        <v>0.001384744984283514</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.04322599999999999</v>
+      </c>
+      <c r="N24">
+        <v>0.129678</v>
+      </c>
+      <c r="O24">
+        <v>0.000469192113109172</v>
+      </c>
+      <c r="P24">
+        <v>0.0004691921131091722</v>
+      </c>
+      <c r="Q24">
+        <v>0.09168480988199998</v>
+      </c>
+      <c r="R24">
+        <v>0.825163288938</v>
+      </c>
+      <c r="S24">
+        <v>6.497114252933089E-07</v>
+      </c>
+      <c r="T24">
+        <v>6.497114252933092E-07</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.121057</v>
+      </c>
+      <c r="H25">
+        <v>6.363171</v>
+      </c>
+      <c r="I25">
+        <v>0.001384744984283513</v>
+      </c>
+      <c r="J25">
+        <v>0.001384744984283514</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>23.82732666666666</v>
+      </c>
+      <c r="N25">
+        <v>71.48197999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.2586312346383163</v>
+      </c>
+      <c r="P25">
+        <v>0.2586312346383163</v>
+      </c>
+      <c r="Q25">
+        <v>50.53911801761999</v>
+      </c>
+      <c r="R25">
+        <v>454.85206215858</v>
+      </c>
+      <c r="S25">
+        <v>0.0003581383049444609</v>
+      </c>
+      <c r="T25">
+        <v>0.0003581383049444611</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>135.905397365924</v>
-      </c>
-      <c r="H21">
-        <v>135.905397365924</v>
-      </c>
-      <c r="I21">
-        <v>0.09307090407419034</v>
-      </c>
-      <c r="J21">
-        <v>0.09307090407419034</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>22.2004166108953</v>
-      </c>
-      <c r="N21">
-        <v>22.2004166108953</v>
-      </c>
-      <c r="O21">
-        <v>0.2468161968812151</v>
-      </c>
-      <c r="P21">
-        <v>0.2468161968812151</v>
-      </c>
-      <c r="Q21">
-        <v>3017.156441192785</v>
-      </c>
-      <c r="R21">
-        <v>3017.156441192785</v>
-      </c>
-      <c r="S21">
-        <v>0.02297140658388805</v>
-      </c>
-      <c r="T21">
-        <v>0.02297140658388805</v>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.3475303333333333</v>
+      </c>
+      <c r="H26">
+        <v>1.042591</v>
+      </c>
+      <c r="I26">
+        <v>0.0002268872953295036</v>
+      </c>
+      <c r="J26">
+        <v>0.0002268872953295036</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.384600333333333</v>
+      </c>
+      <c r="N26">
+        <v>4.153801000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.01502900005108802</v>
+      </c>
+      <c r="P26">
+        <v>0.01502900005108803</v>
+      </c>
+      <c r="Q26">
+        <v>0.4811906153767778</v>
+      </c>
+      <c r="R26">
+        <v>4.330715538391001</v>
+      </c>
+      <c r="S26">
+        <v>3.409889173098332E-06</v>
+      </c>
+      <c r="T26">
+        <v>3.409889173098333E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.3475303333333333</v>
+      </c>
+      <c r="H27">
+        <v>1.042591</v>
+      </c>
+      <c r="I27">
+        <v>0.0002268872953295036</v>
+      </c>
+      <c r="J27">
+        <v>0.0002268872953295036</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>66.21459833333334</v>
+      </c>
+      <c r="N27">
+        <v>198.643795</v>
+      </c>
+      <c r="O27">
+        <v>0.7187194584438009</v>
+      </c>
+      <c r="P27">
+        <v>0.718719458443801</v>
+      </c>
+      <c r="Q27">
+        <v>23.01158143031611</v>
+      </c>
+      <c r="R27">
+        <v>207.104232872845</v>
+      </c>
+      <c r="S27">
+        <v>0.0001630683140269995</v>
+      </c>
+      <c r="T27">
+        <v>0.0001630683140269996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.3475303333333333</v>
+      </c>
+      <c r="H28">
+        <v>1.042591</v>
+      </c>
+      <c r="I28">
+        <v>0.0002268872953295036</v>
+      </c>
+      <c r="J28">
+        <v>0.0002268872953295036</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.2096873333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.629062</v>
+      </c>
+      <c r="O28">
+        <v>0.002276029311499885</v>
+      </c>
+      <c r="P28">
+        <v>0.002276029311499885</v>
+      </c>
+      <c r="Q28">
+        <v>0.07287270884911111</v>
+      </c>
+      <c r="R28">
+        <v>0.655854379642</v>
+      </c>
+      <c r="S28">
+        <v>5.164021345768811E-07</v>
+      </c>
+      <c r="T28">
+        <v>5.164021345768812E-07</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.3475303333333333</v>
+      </c>
+      <c r="H29">
+        <v>1.042591</v>
+      </c>
+      <c r="I29">
+        <v>0.0002268872953295036</v>
+      </c>
+      <c r="J29">
+        <v>0.0002268872953295036</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.4491346666666667</v>
+      </c>
+      <c r="N29">
+        <v>1.347404</v>
+      </c>
+      <c r="O29">
+        <v>0.004875085442185652</v>
+      </c>
+      <c r="P29">
+        <v>0.004875085442185653</v>
+      </c>
+      <c r="Q29">
+        <v>0.1560879204182222</v>
+      </c>
+      <c r="R29">
+        <v>1.404791283764</v>
+      </c>
+      <c r="S29">
+        <v>1.10609495047774E-06</v>
+      </c>
+      <c r="T29">
+        <v>1.10609495047774E-06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.3475303333333333</v>
+      </c>
+      <c r="H30">
+        <v>1.042591</v>
+      </c>
+      <c r="I30">
+        <v>0.0002268872953295036</v>
+      </c>
+      <c r="J30">
+        <v>0.0002268872953295036</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.04322599999999999</v>
+      </c>
+      <c r="N30">
+        <v>0.129678</v>
+      </c>
+      <c r="O30">
+        <v>0.000469192113109172</v>
+      </c>
+      <c r="P30">
+        <v>0.0004691921131091722</v>
+      </c>
+      <c r="Q30">
+        <v>0.01502234618866666</v>
+      </c>
+      <c r="R30">
+        <v>0.135201115698</v>
+      </c>
+      <c r="S30">
+        <v>1.064537295332746E-07</v>
+      </c>
+      <c r="T30">
+        <v>1.064537295332746E-07</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.3475303333333333</v>
+      </c>
+      <c r="H31">
+        <v>1.042591</v>
+      </c>
+      <c r="I31">
+        <v>0.0002268872953295036</v>
+      </c>
+      <c r="J31">
+        <v>0.0002268872953295036</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>23.82732666666666</v>
+      </c>
+      <c r="N31">
+        <v>71.48197999999999</v>
+      </c>
+      <c r="O31">
+        <v>0.2586312346383163</v>
+      </c>
+      <c r="P31">
+        <v>0.2586312346383163</v>
+      </c>
+      <c r="Q31">
+        <v>8.280718778908888</v>
+      </c>
+      <c r="R31">
+        <v>74.52646901017999</v>
+      </c>
+      <c r="S31">
+        <v>5.86801413148178E-05</v>
+      </c>
+      <c r="T31">
+        <v>5.868014131481782E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>169.7210186666667</v>
+      </c>
+      <c r="H32">
+        <v>509.163056</v>
+      </c>
+      <c r="I32">
+        <v>0.1108034010053267</v>
+      </c>
+      <c r="J32">
+        <v>0.1108034010053267</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.384600333333333</v>
+      </c>
+      <c r="N32">
+        <v>4.153801000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.01502900005108802</v>
+      </c>
+      <c r="P32">
+        <v>0.01502900005108803</v>
+      </c>
+      <c r="Q32">
+        <v>234.9957790195396</v>
+      </c>
+      <c r="R32">
+        <v>2114.962011175856</v>
+      </c>
+      <c r="S32">
+        <v>0.001665264319369781</v>
+      </c>
+      <c r="T32">
+        <v>0.001665264319369782</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>169.7210186666667</v>
+      </c>
+      <c r="H33">
+        <v>509.163056</v>
+      </c>
+      <c r="I33">
+        <v>0.1108034010053267</v>
+      </c>
+      <c r="J33">
+        <v>0.1108034010053267</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>66.21459833333334</v>
+      </c>
+      <c r="N33">
+        <v>198.643795</v>
+      </c>
+      <c r="O33">
+        <v>0.7187194584438009</v>
+      </c>
+      <c r="P33">
+        <v>0.718719458443801</v>
+      </c>
+      <c r="Q33">
+        <v>11238.0090797375</v>
+      </c>
+      <c r="R33">
+        <v>101142.0817176375</v>
+      </c>
+      <c r="S33">
+        <v>0.07963656036427971</v>
+      </c>
+      <c r="T33">
+        <v>0.07963656036427971</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>169.7210186666667</v>
+      </c>
+      <c r="H34">
+        <v>509.163056</v>
+      </c>
+      <c r="I34">
+        <v>0.1108034010053267</v>
+      </c>
+      <c r="J34">
+        <v>0.1108034010053267</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.2096873333333333</v>
+      </c>
+      <c r="N34">
+        <v>0.629062</v>
+      </c>
+      <c r="O34">
+        <v>0.002276029311499885</v>
+      </c>
+      <c r="P34">
+        <v>0.002276029311499885</v>
+      </c>
+      <c r="Q34">
+        <v>35.58834781483022</v>
+      </c>
+      <c r="R34">
+        <v>320.295130333472</v>
+      </c>
+      <c r="S34">
+        <v>0.0002521917885019993</v>
+      </c>
+      <c r="T34">
+        <v>0.0002521917885019994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>169.7210186666667</v>
+      </c>
+      <c r="H35">
+        <v>509.163056</v>
+      </c>
+      <c r="I35">
+        <v>0.1108034010053267</v>
+      </c>
+      <c r="J35">
+        <v>0.1108034010053267</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.4491346666666667</v>
+      </c>
+      <c r="N35">
+        <v>1.347404</v>
+      </c>
+      <c r="O35">
+        <v>0.004875085442185652</v>
+      </c>
+      <c r="P35">
+        <v>0.004875085442185653</v>
+      </c>
+      <c r="Q35">
+        <v>76.22759314518044</v>
+      </c>
+      <c r="R35">
+        <v>686.048338306624</v>
+      </c>
+      <c r="S35">
+        <v>0.0005401760471857272</v>
+      </c>
+      <c r="T35">
+        <v>0.0005401760471857273</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>169.7210186666667</v>
+      </c>
+      <c r="H36">
+        <v>509.163056</v>
+      </c>
+      <c r="I36">
+        <v>0.1108034010053267</v>
+      </c>
+      <c r="J36">
+        <v>0.1108034010053267</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M36">
+        <v>0.04322599999999999</v>
+      </c>
+      <c r="N36">
+        <v>0.129678</v>
+      </c>
+      <c r="O36">
+        <v>0.000469192113109172</v>
+      </c>
+      <c r="P36">
+        <v>0.0004691921131091722</v>
+      </c>
+      <c r="Q36">
+        <v>7.336360752885332</v>
+      </c>
+      <c r="R36">
+        <v>66.027246775968</v>
+      </c>
+      <c r="S36">
+        <v>5.198808185737219E-05</v>
+      </c>
+      <c r="T36">
+        <v>5.198808185737221E-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>169.7210186666667</v>
+      </c>
+      <c r="H37">
+        <v>509.163056</v>
+      </c>
+      <c r="I37">
+        <v>0.1108034010053267</v>
+      </c>
+      <c r="J37">
+        <v>0.1108034010053267</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>23.82732666666666</v>
+      </c>
+      <c r="N37">
+        <v>71.48197999999999</v>
+      </c>
+      <c r="O37">
+        <v>0.2586312346383163</v>
+      </c>
+      <c r="P37">
+        <v>0.2586312346383163</v>
+      </c>
+      <c r="Q37">
+        <v>4043.998153970097</v>
+      </c>
+      <c r="R37">
+        <v>36395.98338573088</v>
+      </c>
+      <c r="S37">
+        <v>0.0286572204041321</v>
+      </c>
+      <c r="T37">
+        <v>0.0286572204041321</v>
       </c>
     </row>
   </sheetData>
